--- a/medicine/Pharmacie/Parasympathomimétique/Parasympathomimétique.xlsx
+++ b/medicine/Pharmacie/Parasympathomimétique/Parasympathomimétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parasympathomim%C3%A9tique</t>
+          <t>Parasympathomimétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parasympathicomimétiques (ou parasympathomimétiques) sont des substances dont les propriétés imitent la stimulation du système nerveux parasympathique. Ils causent, au niveau des récepteurs nicotiniques et muscariniques du système nerveux, des effets identiques à ceux produits par l'acétylcholine, libérée par les fibres nerveuses parasympathiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parasympathomim%C3%A9tique</t>
+          <t>Parasympathomimétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>galantamine
 malathion
